--- a/RCSA/Cases/DHL-Excel.xlsx
+++ b/RCSA/Cases/DHL-Excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31072\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anmol/OneDrive - Indian School of Business/Github/ISB-Term3/RCSA/Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_4B44EEC4BFF1351F60AA56F63B57CA8F55D495BD" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D4B4F7D-FBC8-C940-A8F7-3A4FE57D7DBC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="1100" yWindow="840" windowWidth="33360" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DHL Supply Chain" sheetId="1" r:id="rId1"/>
@@ -153,7 +154,7 @@
     <definedName name="solver_urs" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_var" localSheetId="0" hidden="1">" "</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_vir" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_vol" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_vst" localSheetId="0" hidden="1">0</definedName>
@@ -165,22 +166,30 @@
     <definedName name="TotalOEM">'DHL Supply Chain'!#REF!</definedName>
     <definedName name="Units_Required">'DHL Supply Chain'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>singfat</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -189,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -218,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0">
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -343,11 +352,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$¥-804]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +385,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -513,6 +528,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -548,6 +580,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -723,31 +772,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="9.1640625" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -758,7 +807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -769,7 +818,7 @@
         <v>920000</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -780,7 +829,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -803,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -829,7 +878,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
@@ -837,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -887,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -937,7 +986,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -987,7 +1036,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1037,7 +1086,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1087,7 +1136,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1121,7 +1170,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1155,7 +1204,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1205,7 +1254,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1255,7 +1304,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1305,7 +1354,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1315,12 +1364,12 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E23" s="3" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="D24" s="5" t="s">
         <v>0</v>
@@ -1373,7 +1422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1434,7 +1483,7 @@
         <v>0.38623200000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1495,7 +1544,7 @@
         <v>0.23916200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1556,7 +1605,7 @@
         <v>0.21252000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1617,7 +1666,7 @@
         <v>0.33110000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1666,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1715,7 +1764,7 @@
         <v>0.10626000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1825,7 @@
         <v>0.105644</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1886,7 @@
         <v>0.28967399999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
